--- a/biology/Médecine/Vaccin_Minhai_contre_la_Covid-19/Vaccin_Minhai_contre_la_Covid-19.xlsx
+++ b/biology/Médecine/Vaccin_Minhai_contre_la_Covid-19/Vaccin_Minhai_contre_la_Covid-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vaccin Minhai contre la COVID-19, aussi nommé KCONVAC, est un vaccin contre la Covid-19 développé par Shenzhen Kangtai Biological Products Co. Ltd et sa filiale, Beijing Minhai Biotechnology Co., Ltd.
-Le vaccin Minhai utilise le coronavirus inactivé, qui ne peut pas se répliquer dans les cellules humaines et qui permet de déclencher une réponse immunitaire. Il s'injecte en deux doses espacées de 28 jours[1].
-En mai 2021, la Chine délivre une autorisation d'urgence au vaccin Minhai. La loi chinoise permet l'utilisation du vaccin « dans certaines limites de temps et de périmètre »[1].
+Le vaccin Minhai utilise le coronavirus inactivé, qui ne peut pas se répliquer dans les cellules humaines et qui permet de déclencher une réponse immunitaire. Il s'injecte en deux doses espacées de 28 jours.
+En mai 2021, la Chine délivre une autorisation d'urgence au vaccin Minhai. La loi chinoise permet l'utilisation du vaccin « dans certaines limites de temps et de périmètre ».
 </t>
         </is>
       </c>
@@ -513,14 +525,51 @@
           <t>Essais cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En octobre 2020, KCONVAC a commencé des essais cliniques de phase I avec 180 participants en Chine[2].
-Plus tard, KCONVAC a commencé des essais de phase II avec 1 000 participants en Chine[3].
-En mai 2021, KCONVAC a commencé des essais de phase III pour des essais à l'échelle mondiale avec 28 000 participants[4].
-Essais cliniques sur les enfants
-En août 2021, KCONVAC a commencé des essais de phase I avec 84 participants en Chine[5].
-En septembre, KCONVAC a commencé des essais de phase II avec 480 participants en Chine[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2020, KCONVAC a commencé des essais cliniques de phase I avec 180 participants en Chine.
+Plus tard, KCONVAC a commencé des essais de phase II avec 1 000 participants en Chine.
+En mai 2021, KCONVAC a commencé des essais de phase III pour des essais à l'échelle mondiale avec 28 000 participants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vaccin_Minhai_contre_la_Covid-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaccin_Minhai_contre_la_Covid-19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Essais cliniques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Essais cliniques sur les enfants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En août 2021, KCONVAC a commencé des essais de phase I avec 84 participants en Chine.
+En septembre, KCONVAC a commencé des essais de phase II avec 480 participants en Chine.
 </t>
         </is>
       </c>
